--- a/labeled_036.xlsx
+++ b/labeled_036.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruger\Desktop\Studie\softwareengi\Bachelor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RaChr\Desktop\Skole\Bachelor\Ai-Bachelor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15ACACFE-2935-40F2-9858-AE0C2C0E69E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2338A36-674F-44D5-B2AA-51ED01D373F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2497" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2496" uniqueCount="755">
   <si>
     <t>start</t>
   </si>
@@ -2156,9 +2156,6 @@
   </si>
   <si>
     <t>hvis man lige pludselig er begyndt at investere i kunst, eller man har fået en eller anden sindssyg hobby, som er lidt vildere end andre ting, så er det jo også, tænker jeg, vigtigt, at man både gør det inden man får forsikring, men jo også efterfølgende lige overvejer, om der er sket nogle ændringer.</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t xml:space="preserve"> brænd- og vandskade- og tyveri.</t>
@@ -2658,8 +2655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I705"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C688" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E706" sqref="E706"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3481,7 +3478,7 @@
         <v>705</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="b">
         <v>1</v>
@@ -5199,7 +5196,7 @@
         <v>707</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F102" t="s">
         <v>706</v>
@@ -5257,7 +5254,7 @@
         <v>707</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F104" t="s">
         <v>706</v>
@@ -5471,7 +5468,7 @@
         <v>707</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F112" t="s">
         <v>706</v>
@@ -5827,7 +5824,7 @@
         <v>707</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F128" t="s">
         <v>706</v>
@@ -6762,7 +6759,7 @@
         <v>707</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F168" t="s">
         <v>706</v>
@@ -6849,7 +6846,7 @@
         <v>699</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="I171" s="1" t="s">
         <v>171</v>
@@ -7063,7 +7060,7 @@
         <v>707</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F179" t="s">
         <v>706</v>
@@ -7587,7 +7584,7 @@
         <v>707</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F198" t="s">
         <v>706</v>
@@ -7674,7 +7671,7 @@
         <v>707</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F201" t="s">
         <v>706</v>
@@ -7897,7 +7894,7 @@
         <v>707</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F209" t="s">
         <v>706</v>
@@ -8169,7 +8166,7 @@
         <v>707</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F219" t="s">
         <v>706</v>
@@ -8227,7 +8224,7 @@
         <v>699</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F221" t="s">
         <v>705</v>
@@ -8499,7 +8496,7 @@
         <v>707</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F231" t="s">
         <v>706</v>
@@ -8820,7 +8817,7 @@
         <v>707</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F243" t="s">
         <v>706</v>
@@ -8878,7 +8875,7 @@
         <v>707</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F245" t="s">
         <v>706</v>
@@ -8985,7 +8982,7 @@
         <v>699</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I249" s="1" t="s">
         <v>248</v>
@@ -9560,7 +9557,7 @@
         <v>699</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F271" t="s">
         <v>705</v>
@@ -9589,7 +9586,7 @@
         <v>699</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I272" s="1" t="s">
         <v>270</v>
@@ -9716,7 +9713,7 @@
         <v>707</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F277" t="s">
         <v>706</v>
@@ -10199,7 +10196,7 @@
         <v>707</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F298" t="s">
         <v>706</v>
@@ -10506,7 +10503,7 @@
         <v>699</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H312" t="b">
         <v>1</v>
@@ -10840,7 +10837,7 @@
         <v>709</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F326" t="s">
         <v>706</v>
@@ -11323,7 +11320,7 @@
         <v>699</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F347" t="s">
         <v>705</v>
@@ -11372,7 +11369,7 @@
         <v>709</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="I349" s="1" t="s">
         <v>345</v>
@@ -11392,7 +11389,7 @@
         <v>709</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F350" t="s">
         <v>706</v>
@@ -11644,7 +11641,7 @@
         <v>699</v>
       </c>
       <c r="E359" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="I359" s="1" t="s">
         <v>354</v>
@@ -12165,7 +12162,7 @@
         <v>709</v>
       </c>
       <c r="E381" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F381" t="s">
         <v>706</v>
@@ -12310,7 +12307,7 @@
         <v>709</v>
       </c>
       <c r="E386" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F386" t="s">
         <v>706</v>
@@ -13199,7 +13196,7 @@
         <v>699</v>
       </c>
       <c r="E418" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="I418" s="1" t="s">
         <v>413</v>
@@ -13466,7 +13463,7 @@
         <v>709</v>
       </c>
       <c r="E430" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F430" t="s">
         <v>706</v>
@@ -13611,7 +13608,7 @@
         <v>709</v>
       </c>
       <c r="E435" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F435" t="s">
         <v>706</v>
@@ -14930,7 +14927,7 @@
         <v>709</v>
       </c>
       <c r="E484" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="I484" s="1" t="s">
         <v>479</v>
@@ -15079,7 +15076,7 @@
         <v>699</v>
       </c>
       <c r="E491" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F491" t="s">
         <v>705</v>
@@ -15311,7 +15308,7 @@
         <v>709</v>
       </c>
       <c r="E499" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F499" t="s">
         <v>706</v>
@@ -15659,7 +15656,7 @@
         <v>709</v>
       </c>
       <c r="E511" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F511" t="s">
         <v>706</v>
@@ -15969,7 +15966,7 @@
         <v>709</v>
       </c>
       <c r="E522" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F522" t="s">
         <v>706</v>
@@ -16609,7 +16606,7 @@
         <v>709</v>
       </c>
       <c r="E545" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F545" t="s">
         <v>706</v>
@@ -17679,7 +17676,7 @@
         <v>709</v>
       </c>
       <c r="E585" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F585" t="s">
         <v>706</v>
@@ -18294,7 +18291,7 @@
         <v>699</v>
       </c>
       <c r="E612" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H612" t="b">
         <v>0</v>
@@ -19002,7 +18999,7 @@
         <v>699</v>
       </c>
       <c r="E642" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I642" s="1" t="s">
         <v>632</v>
@@ -19169,7 +19166,7 @@
         <v>707</v>
       </c>
       <c r="E649" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F649" t="s">
         <v>706</v>
@@ -19443,7 +19440,7 @@
         <v>699</v>
       </c>
       <c r="E660" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="I660" s="1" t="s">
         <v>650</v>
@@ -20244,7 +20241,7 @@
         <v>699</v>
       </c>
       <c r="E696" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="I696" s="1" t="s">
         <v>683</v>
@@ -20432,22 +20429,14 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008BA4CACCB295284C9543D57370035B11" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8d0b1e45dff6aff44695dc5f2bd716cb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="017d1f16-6d54-4c23-a67a-b7f84f6bb8a0" xmlns:ns3="889e7f7e-cb63-460b-b277-b78afa20c8c9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b4f609581bb41a1140eef53502fe361e" ns2:_="" ns3:_="">
     <xsd:import namespace="017d1f16-6d54-4c23-a67a-b7f84f6bb8a0"/>
@@ -20670,15 +20659,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{039AC793-FA86-46F9-BE66-8DD75116057E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA829C32-D33B-4DE9-9328-4A862E372DF4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20695,4 +20685,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{039AC793-FA86-46F9-BE66-8DD75116057E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/labeled_036.xlsx
+++ b/labeled_036.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RaChr\Desktop\Skole\Bachelor\Ai-Bachelor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2338A36-674F-44D5-B2AA-51ED01D373F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF2DE7B-2A57-4A88-818F-C0124EF1E943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27780" yWindow="0" windowWidth="23925" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2496" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2496" uniqueCount="756">
   <si>
     <t>start</t>
   </si>
@@ -2285,6 +2285,9 @@
   </si>
   <si>
     <t>Det var meget trygt at blive guided igennem junglen på den måde.</t>
+  </si>
+  <si>
+    <t>Er der grund til at have en ulykkesforsikring, hvis man er medlem af Danmark?</t>
   </si>
 </sst>
 </file>
@@ -2655,8 +2658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I705"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="B202" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E237" sqref="E237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8643,7 +8646,7 @@
         <v>699</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>236</v>
+        <v>755</v>
       </c>
       <c r="F237" t="s">
         <v>705</v>
@@ -20437,6 +20440,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008BA4CACCB295284C9543D57370035B11" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8d0b1e45dff6aff44695dc5f2bd716cb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="017d1f16-6d54-4c23-a67a-b7f84f6bb8a0" xmlns:ns3="889e7f7e-cb63-460b-b277-b78afa20c8c9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b4f609581bb41a1140eef53502fe361e" ns2:_="" ns3:_="">
     <xsd:import namespace="017d1f16-6d54-4c23-a67a-b7f84f6bb8a0"/>
@@ -20659,16 +20671,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{039AC793-FA86-46F9-BE66-8DD75116057E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA829C32-D33B-4DE9-9328-4A862E372DF4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20685,12 +20696,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{039AC793-FA86-46F9-BE66-8DD75116057E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/labeled_036.xlsx
+++ b/labeled_036.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruger\Desktop\Studie\softwareengi\Bachelor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RaChr\Desktop\Skole\Bachelor\Ai-Bachelor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15ACACFE-2935-40F2-9858-AE0C2C0E69E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73487305-A169-488F-B5D5-D6C745143702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27780" yWindow="0" windowWidth="23925" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2497" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2496" uniqueCount="756">
   <si>
     <t>start</t>
   </si>
@@ -2158,9 +2158,6 @@
     <t>hvis man lige pludselig er begyndt at investere i kunst, eller man har fået en eller anden sindssyg hobby, som er lidt vildere end andre ting, så er det jo også, tænker jeg, vigtigt, at man både gør det inden man får forsikring, men jo også efterfølgende lige overvejer, om der er sket nogle ændringer.</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t xml:space="preserve"> brænd- og vandskade- og tyveri.</t>
   </si>
   <si>
@@ -2288,6 +2285,9 @@
   </si>
   <si>
     <t>Det var meget trygt at blive guided igennem junglen på den måde.</t>
+  </si>
+  <si>
+    <t>Er der grund til at have en ulykkesforsikring, hvis man er medlem af Danmark?</t>
   </si>
 </sst>
 </file>
@@ -2658,8 +2658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I705"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C688" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E706" sqref="E706"/>
+    <sheetView tabSelected="1" topLeftCell="D39" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3481,7 +3481,7 @@
         <v>705</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="b">
         <v>1</v>
@@ -5199,7 +5199,7 @@
         <v>707</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F102" t="s">
         <v>706</v>
@@ -5257,7 +5257,7 @@
         <v>707</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F104" t="s">
         <v>706</v>
@@ -5471,7 +5471,7 @@
         <v>707</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F112" t="s">
         <v>706</v>
@@ -5827,7 +5827,7 @@
         <v>707</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F128" t="s">
         <v>706</v>
@@ -6762,7 +6762,7 @@
         <v>707</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F168" t="s">
         <v>706</v>
@@ -6849,7 +6849,7 @@
         <v>699</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="I171" s="1" t="s">
         <v>171</v>
@@ -7063,7 +7063,7 @@
         <v>707</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F179" t="s">
         <v>706</v>
@@ -7587,7 +7587,7 @@
         <v>707</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F198" t="s">
         <v>706</v>
@@ -7674,7 +7674,7 @@
         <v>707</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F201" t="s">
         <v>706</v>
@@ -7897,7 +7897,7 @@
         <v>707</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F209" t="s">
         <v>706</v>
@@ -8169,7 +8169,7 @@
         <v>707</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F219" t="s">
         <v>706</v>
@@ -8227,7 +8227,7 @@
         <v>699</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F221" t="s">
         <v>705</v>
@@ -8499,7 +8499,7 @@
         <v>707</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F231" t="s">
         <v>706</v>
@@ -8646,7 +8646,7 @@
         <v>699</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>236</v>
+        <v>755</v>
       </c>
       <c r="F237" t="s">
         <v>705</v>
@@ -8820,7 +8820,7 @@
         <v>707</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F243" t="s">
         <v>706</v>
@@ -8878,7 +8878,7 @@
         <v>707</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F245" t="s">
         <v>706</v>
@@ -8985,7 +8985,7 @@
         <v>699</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I249" s="1" t="s">
         <v>248</v>
@@ -9560,7 +9560,7 @@
         <v>699</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F271" t="s">
         <v>705</v>
@@ -9589,7 +9589,7 @@
         <v>699</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I272" s="1" t="s">
         <v>270</v>
@@ -9716,7 +9716,7 @@
         <v>707</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F277" t="s">
         <v>706</v>
@@ -10199,7 +10199,7 @@
         <v>707</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F298" t="s">
         <v>706</v>
@@ -10506,7 +10506,7 @@
         <v>699</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H312" t="b">
         <v>1</v>
@@ -10840,7 +10840,7 @@
         <v>709</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F326" t="s">
         <v>706</v>
@@ -11323,7 +11323,7 @@
         <v>699</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F347" t="s">
         <v>705</v>
@@ -11372,7 +11372,7 @@
         <v>709</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="I349" s="1" t="s">
         <v>345</v>
@@ -11392,7 +11392,7 @@
         <v>709</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F350" t="s">
         <v>706</v>
@@ -11644,7 +11644,7 @@
         <v>699</v>
       </c>
       <c r="E359" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="I359" s="1" t="s">
         <v>354</v>
@@ -12165,7 +12165,7 @@
         <v>709</v>
       </c>
       <c r="E381" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F381" t="s">
         <v>706</v>
@@ -12310,7 +12310,7 @@
         <v>709</v>
       </c>
       <c r="E386" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F386" t="s">
         <v>706</v>
@@ -13199,7 +13199,7 @@
         <v>699</v>
       </c>
       <c r="E418" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="I418" s="1" t="s">
         <v>413</v>
@@ -13466,7 +13466,7 @@
         <v>709</v>
       </c>
       <c r="E430" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F430" t="s">
         <v>706</v>
@@ -13611,7 +13611,7 @@
         <v>709</v>
       </c>
       <c r="E435" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F435" t="s">
         <v>706</v>
@@ -14930,7 +14930,7 @@
         <v>709</v>
       </c>
       <c r="E484" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="I484" s="1" t="s">
         <v>479</v>
@@ -15079,7 +15079,7 @@
         <v>699</v>
       </c>
       <c r="E491" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F491" t="s">
         <v>705</v>
@@ -15311,7 +15311,7 @@
         <v>709</v>
       </c>
       <c r="E499" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F499" t="s">
         <v>706</v>
@@ -15659,7 +15659,7 @@
         <v>709</v>
       </c>
       <c r="E511" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F511" t="s">
         <v>706</v>
@@ -15969,7 +15969,7 @@
         <v>709</v>
       </c>
       <c r="E522" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F522" t="s">
         <v>706</v>
@@ -16609,7 +16609,7 @@
         <v>709</v>
       </c>
       <c r="E545" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F545" t="s">
         <v>706</v>
@@ -17679,7 +17679,7 @@
         <v>709</v>
       </c>
       <c r="E585" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F585" t="s">
         <v>706</v>
@@ -18294,7 +18294,7 @@
         <v>699</v>
       </c>
       <c r="E612" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H612" t="b">
         <v>0</v>
@@ -19002,7 +19002,7 @@
         <v>699</v>
       </c>
       <c r="E642" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I642" s="1" t="s">
         <v>632</v>
@@ -19169,7 +19169,7 @@
         <v>707</v>
       </c>
       <c r="E649" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F649" t="s">
         <v>706</v>
@@ -19443,7 +19443,7 @@
         <v>699</v>
       </c>
       <c r="E660" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="I660" s="1" t="s">
         <v>650</v>
@@ -20244,7 +20244,7 @@
         <v>699</v>
       </c>
       <c r="E696" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="I696" s="1" t="s">
         <v>683</v>
@@ -20432,8 +20432,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/labeled_036.xlsx
+++ b/labeled_036.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RaChr\Desktop\Skole\Bachelor\Ai-Bachelor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF2DE7B-2A57-4A88-818F-C0124EF1E943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06F7BFC-52C3-4AD0-A17D-B42896370713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27780" yWindow="0" windowWidth="23925" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2658,8 +2658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I705"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B202" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E237" sqref="E237"/>
+    <sheetView tabSelected="1" topLeftCell="B131" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H161" sqref="H161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5063,6 +5063,9 @@
       <c r="E96" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
       <c r="I96" s="1" t="s">
         <v>97</v>
       </c>
@@ -5083,6 +5086,9 @@
       <c r="E97" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
       <c r="I97" s="1" t="s">
         <v>98</v>
       </c>
@@ -5103,6 +5109,9 @@
       <c r="E98" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
       <c r="I98" s="1" t="s">
         <v>99</v>
       </c>
@@ -5123,6 +5132,9 @@
       <c r="E99" s="1" t="s">
         <v>100</v>
       </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
       <c r="I99" s="1" t="s">
         <v>100</v>
       </c>
@@ -5288,6 +5300,9 @@
       <c r="E105" s="1" t="s">
         <v>106</v>
       </c>
+      <c r="H105" t="b">
+        <v>0</v>
+      </c>
       <c r="I105" s="1" t="s">
         <v>106</v>
       </c>
@@ -5308,6 +5323,9 @@
       <c r="E106" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="H106" t="b">
+        <v>0</v>
+      </c>
       <c r="I106" s="1" t="s">
         <v>107</v>
       </c>
@@ -5502,6 +5520,9 @@
       <c r="E113" s="1" t="s">
         <v>114</v>
       </c>
+      <c r="H113" t="b">
+        <v>0</v>
+      </c>
       <c r="I113" s="1" t="s">
         <v>114</v>
       </c>
@@ -5522,6 +5543,9 @@
       <c r="E114" s="1" t="s">
         <v>115</v>
       </c>
+      <c r="H114" t="b">
+        <v>0</v>
+      </c>
       <c r="I114" s="1" t="s">
         <v>115</v>
       </c>
@@ -5542,6 +5566,9 @@
       <c r="E115" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="H115" t="b">
+        <v>0</v>
+      </c>
       <c r="I115" s="1" t="s">
         <v>116</v>
       </c>
@@ -5562,6 +5589,9 @@
       <c r="E116" s="1" t="s">
         <v>117</v>
       </c>
+      <c r="H116" t="b">
+        <v>0</v>
+      </c>
       <c r="I116" s="1" t="s">
         <v>117</v>
       </c>
@@ -5582,6 +5612,9 @@
       <c r="E117" s="1" t="s">
         <v>118</v>
       </c>
+      <c r="H117" t="b">
+        <v>0</v>
+      </c>
       <c r="I117" s="1" t="s">
         <v>118</v>
       </c>
@@ -5602,6 +5635,9 @@
       <c r="E118" s="1" t="s">
         <v>119</v>
       </c>
+      <c r="H118" t="b">
+        <v>0</v>
+      </c>
       <c r="I118" s="1" t="s">
         <v>119</v>
       </c>
@@ -5622,6 +5658,9 @@
       <c r="E119" s="1" t="s">
         <v>120</v>
       </c>
+      <c r="H119" t="b">
+        <v>0</v>
+      </c>
       <c r="I119" s="1" t="s">
         <v>120</v>
       </c>
@@ -5642,6 +5681,9 @@
       <c r="E120" s="1" t="s">
         <v>121</v>
       </c>
+      <c r="H120" t="b">
+        <v>0</v>
+      </c>
       <c r="I120" s="1" t="s">
         <v>121</v>
       </c>
@@ -5662,6 +5704,9 @@
       <c r="E121" s="1" t="s">
         <v>122</v>
       </c>
+      <c r="H121" t="b">
+        <v>0</v>
+      </c>
       <c r="I121" s="1" t="s">
         <v>122</v>
       </c>
@@ -5682,6 +5727,9 @@
       <c r="E122" s="1" t="s">
         <v>123</v>
       </c>
+      <c r="H122" t="b">
+        <v>0</v>
+      </c>
       <c r="I122" s="1" t="s">
         <v>123</v>
       </c>
@@ -5702,6 +5750,9 @@
       <c r="E123" s="1" t="s">
         <v>124</v>
       </c>
+      <c r="H123" t="b">
+        <v>0</v>
+      </c>
       <c r="I123" s="1" t="s">
         <v>124</v>
       </c>
@@ -5722,6 +5773,9 @@
       <c r="E124" s="1" t="s">
         <v>125</v>
       </c>
+      <c r="H124" t="b">
+        <v>0</v>
+      </c>
       <c r="I124" s="1" t="s">
         <v>125</v>
       </c>
@@ -5965,6 +6019,9 @@
       <c r="E133" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="H133" t="b">
+        <v>0</v>
+      </c>
       <c r="I133" s="1" t="s">
         <v>134</v>
       </c>
@@ -5985,6 +6042,9 @@
       <c r="E134" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="H134" t="b">
+        <v>0</v>
+      </c>
       <c r="I134" s="1" t="s">
         <v>135</v>
       </c>
@@ -6005,6 +6065,9 @@
       <c r="E135" s="1" t="s">
         <v>136</v>
       </c>
+      <c r="H135" t="b">
+        <v>0</v>
+      </c>
       <c r="I135" s="1" t="s">
         <v>136</v>
       </c>
@@ -6025,6 +6088,9 @@
       <c r="E136" s="1" t="s">
         <v>137</v>
       </c>
+      <c r="H136" t="b">
+        <v>0</v>
+      </c>
       <c r="I136" s="1" t="s">
         <v>137</v>
       </c>
@@ -6045,6 +6111,9 @@
       <c r="E137" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="H137" t="b">
+        <v>0</v>
+      </c>
       <c r="I137" s="1" t="s">
         <v>59</v>
       </c>
@@ -6065,6 +6134,9 @@
       <c r="E138" s="1" t="s">
         <v>138</v>
       </c>
+      <c r="H138" t="b">
+        <v>0</v>
+      </c>
       <c r="I138" s="1" t="s">
         <v>138</v>
       </c>
@@ -6085,6 +6157,9 @@
       <c r="E139" s="1" t="s">
         <v>139</v>
       </c>
+      <c r="H139" t="b">
+        <v>0</v>
+      </c>
       <c r="I139" s="1" t="s">
         <v>139</v>
       </c>
@@ -6105,6 +6180,9 @@
       <c r="E140" s="1" t="s">
         <v>140</v>
       </c>
+      <c r="H140" t="b">
+        <v>0</v>
+      </c>
       <c r="I140" s="1" t="s">
         <v>140</v>
       </c>
@@ -6125,6 +6203,9 @@
       <c r="E141" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="H141" t="b">
+        <v>0</v>
+      </c>
       <c r="I141" s="1" t="s">
         <v>141</v>
       </c>
@@ -6145,6 +6226,9 @@
       <c r="E142" s="1" t="s">
         <v>142</v>
       </c>
+      <c r="H142" t="b">
+        <v>0</v>
+      </c>
       <c r="I142" s="1" t="s">
         <v>142</v>
       </c>
@@ -6165,6 +6249,9 @@
       <c r="E143" s="1" t="s">
         <v>143</v>
       </c>
+      <c r="H143" t="b">
+        <v>0</v>
+      </c>
       <c r="I143" s="1" t="s">
         <v>143</v>
       </c>
@@ -6185,6 +6272,9 @@
       <c r="E144" s="1" t="s">
         <v>144</v>
       </c>
+      <c r="H144" t="b">
+        <v>0</v>
+      </c>
       <c r="I144" s="1" t="s">
         <v>144</v>
       </c>
@@ -6205,6 +6295,9 @@
       <c r="E145" s="1" t="s">
         <v>145</v>
       </c>
+      <c r="H145" t="b">
+        <v>0</v>
+      </c>
       <c r="I145" s="1" t="s">
         <v>145</v>
       </c>
@@ -6225,6 +6318,9 @@
       <c r="E146" s="1" t="s">
         <v>146</v>
       </c>
+      <c r="H146" t="b">
+        <v>0</v>
+      </c>
       <c r="I146" s="1" t="s">
         <v>146</v>
       </c>
@@ -6245,6 +6341,9 @@
       <c r="E147" s="1" t="s">
         <v>147</v>
       </c>
+      <c r="H147" t="b">
+        <v>0</v>
+      </c>
       <c r="I147" s="1" t="s">
         <v>147</v>
       </c>
@@ -6265,6 +6364,9 @@
       <c r="E148" s="1" t="s">
         <v>148</v>
       </c>
+      <c r="H148" t="b">
+        <v>0</v>
+      </c>
       <c r="I148" s="1" t="s">
         <v>148</v>
       </c>
@@ -6285,6 +6387,9 @@
       <c r="E149" s="1" t="s">
         <v>149</v>
       </c>
+      <c r="H149" t="b">
+        <v>0</v>
+      </c>
       <c r="I149" s="1" t="s">
         <v>149</v>
       </c>
@@ -6305,6 +6410,9 @@
       <c r="E150" s="1" t="s">
         <v>150</v>
       </c>
+      <c r="H150" t="b">
+        <v>0</v>
+      </c>
       <c r="I150" s="1" t="s">
         <v>150</v>
       </c>
@@ -6325,6 +6433,9 @@
       <c r="E151" s="1" t="s">
         <v>151</v>
       </c>
+      <c r="H151" t="b">
+        <v>0</v>
+      </c>
       <c r="I151" s="1" t="s">
         <v>151</v>
       </c>
@@ -6345,6 +6456,9 @@
       <c r="E152" s="1" t="s">
         <v>152</v>
       </c>
+      <c r="H152" t="b">
+        <v>0</v>
+      </c>
       <c r="I152" s="1" t="s">
         <v>152</v>
       </c>
@@ -6394,6 +6508,9 @@
       <c r="E154" s="1" t="s">
         <v>154</v>
       </c>
+      <c r="H154" t="b">
+        <v>0</v>
+      </c>
       <c r="I154" s="1" t="s">
         <v>154</v>
       </c>
@@ -6413,6 +6530,9 @@
       </c>
       <c r="E155" s="1" t="s">
         <v>155</v>
+      </c>
+      <c r="H155" t="b">
+        <v>0</v>
       </c>
       <c r="I155" s="1" t="s">
         <v>155</v>
@@ -20440,15 +20560,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008BA4CACCB295284C9543D57370035B11" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8d0b1e45dff6aff44695dc5f2bd716cb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="017d1f16-6d54-4c23-a67a-b7f84f6bb8a0" xmlns:ns3="889e7f7e-cb63-460b-b277-b78afa20c8c9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b4f609581bb41a1140eef53502fe361e" ns2:_="" ns3:_="">
     <xsd:import namespace="017d1f16-6d54-4c23-a67a-b7f84f6bb8a0"/>
@@ -20671,15 +20782,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{039AC793-FA86-46F9-BE66-8DD75116057E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA829C32-D33B-4DE9-9328-4A862E372DF4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20696,4 +20808,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{039AC793-FA86-46F9-BE66-8DD75116057E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>